--- a/Doc/Aportes 3-Team.xlsx
+++ b/Doc/Aportes 3-Team.xlsx
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;Bs&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;Bs&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -142,17 +142,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -486,7 +486,7 @@
   <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,16 +496,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
@@ -513,38 +513,38 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
-        <v>43944</v>
+      <c r="G7" s="2">
+        <v>43953</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>210</v>
       </c>
     </row>
@@ -555,9 +555,12 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="G9" s="3">
+        <v>210</v>
+      </c>
       <c r="H9" t="str">
         <f t="shared" ref="H9:H11" si="0">IF(G9&gt;0, "Cancelado", "Pendiente")</f>
-        <v>Pendiente</v>
+        <v>Cancelado</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -567,9 +570,12 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="G10" s="3">
+        <v>210</v>
+      </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Cancelado</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -579,9 +585,12 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
+      <c r="G11" s="3">
+        <v>210</v>
+      </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Cancelado</v>
       </c>
     </row>
   </sheetData>
